--- a/マップ.xlsx
+++ b/マップ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23CI0538\3DGame01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6578C917-1F2B-493D-BDD1-CCBEA8EB63B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D133264-969E-452D-8E51-DCEE8575A49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0F4F8FF-4FCC-4285-B462-4635BDB893DD}"/>
+    <workbookView xWindow="11580" yWindow="165" windowWidth="12045" windowHeight="10155" xr2:uid="{E0F4F8FF-4FCC-4285-B462-4635BDB893DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>ランダム</t>
     <phoneticPr fontId="2"/>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -127,7 +134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,6 +157,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,7 +479,7 @@
   <dimension ref="A1:DM23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="CC11" sqref="CC11"/>
+      <selection activeCell="CE8" sqref="CE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -867,7 +877,9 @@
       <c r="BW4" s="1"/>
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
-      <c r="BZ4" s="1"/>
+      <c r="BZ4" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="CA4" s="1"/>
       <c r="CB4" s="1"/>
       <c r="CC4" s="1"/>
@@ -976,7 +988,7 @@
       <c r="BW5" s="1"/>
       <c r="BX5" s="1"/>
       <c r="BY5" s="1"/>
-      <c r="BZ5" s="1"/>
+      <c r="BZ5" s="3"/>
       <c r="CA5" s="1"/>
       <c r="CB5" s="1"/>
       <c r="CC5" s="1"/>
@@ -1257,13 +1269,13 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="5"/>
+      <c r="AF8" s="8"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
-      <c r="AL8" s="5"/>
+      <c r="AL8" s="8"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
@@ -1575,7 +1587,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="5"/>
+      <c r="AC11" s="6"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -1587,7 +1599,7 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
-      <c r="AO11" s="5"/>
+      <c r="AO11" s="6"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
@@ -1621,11 +1633,11 @@
       <c r="BZ11" s="1"/>
       <c r="CA11" s="1"/>
       <c r="CB11" s="1"/>
-      <c r="CC11" s="5"/>
+      <c r="CC11" s="1"/>
       <c r="CD11" s="1"/>
-      <c r="CE11" s="5"/>
+      <c r="CE11" s="7"/>
       <c r="CF11" s="1"/>
-      <c r="CG11" s="5"/>
+      <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
       <c r="CJ11" s="1"/>
@@ -1899,13 +1911,13 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="5"/>
+      <c r="AF14" s="8"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="5"/>
+      <c r="AL14" s="8"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
@@ -2158,7 +2170,7 @@
       <c r="CB16" s="1"/>
       <c r="CC16" s="1"/>
       <c r="CD16" s="1"/>
-      <c r="CE16" s="7"/>
+      <c r="CE16" s="1"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>

--- a/マップ.xlsx
+++ b/マップ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23CI0538\3DGame01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\3DGame01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D133264-969E-452D-8E51-DCEE8575A49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5914F23-374C-4FF7-964A-7D1AF5A71490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="165" windowWidth="12045" windowHeight="10155" xr2:uid="{E0F4F8FF-4FCC-4285-B462-4635BDB893DD}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E0F4F8FF-4FCC-4285-B462-4635BDB893DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>ランダム</t>
     <phoneticPr fontId="2"/>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A2C51A-4710-4790-84F4-03C141B58776}">
   <dimension ref="A1:DM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="CE8" sqref="CE8"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BP3" sqref="BP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -877,9 +877,7 @@
       <c r="BW4" s="1"/>
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
-      <c r="BZ4" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="BZ4" s="1"/>
       <c r="CA4" s="1"/>
       <c r="CB4" s="1"/>
       <c r="CC4" s="1"/>
@@ -987,19 +985,19 @@
       <c r="BV5" s="1"/>
       <c r="BW5" s="1"/>
       <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
-      <c r="BZ5" s="3"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="1"/>
       <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
+      <c r="CB5" s="6"/>
       <c r="CC5" s="1"/>
       <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
+      <c r="CE5" s="5"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
+      <c r="CH5" s="6"/>
       <c r="CI5" s="1"/>
       <c r="CJ5" s="1"/>
-      <c r="CK5" s="1"/>
+      <c r="CK5" s="6"/>
       <c r="CL5" s="1"/>
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
@@ -1308,19 +1306,19 @@
       <c r="BV8" s="1"/>
       <c r="BW8" s="1"/>
       <c r="BX8" s="1"/>
-      <c r="BY8" s="1"/>
+      <c r="BY8" s="6"/>
       <c r="BZ8" s="1"/>
       <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
+      <c r="CB8" s="6"/>
       <c r="CC8" s="1"/>
       <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
+      <c r="CE8" s="6"/>
       <c r="CF8" s="1"/>
       <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
+      <c r="CH8" s="6"/>
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
-      <c r="CK8" s="1"/>
+      <c r="CK8" s="6"/>
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
@@ -1629,19 +1627,19 @@
       <c r="BV11" s="1"/>
       <c r="BW11" s="1"/>
       <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
+      <c r="BY11" s="5"/>
       <c r="BZ11" s="1"/>
       <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
+      <c r="CB11" s="6"/>
       <c r="CC11" s="1"/>
       <c r="CD11" s="1"/>
       <c r="CE11" s="7"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
+      <c r="CH11" s="6"/>
       <c r="CI11" s="1"/>
       <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
+      <c r="CK11" s="5"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
@@ -1950,19 +1948,19 @@
       <c r="BV14" s="1"/>
       <c r="BW14" s="1"/>
       <c r="BX14" s="1"/>
-      <c r="BY14" s="1"/>
+      <c r="BY14" s="6"/>
       <c r="BZ14" s="1"/>
       <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
+      <c r="CB14" s="6"/>
       <c r="CC14" s="1"/>
       <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
+      <c r="CE14" s="6"/>
       <c r="CF14" s="1"/>
       <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
+      <c r="CH14" s="6"/>
       <c r="CI14" s="1"/>
       <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
+      <c r="CK14" s="6"/>
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
@@ -2271,19 +2269,19 @@
       <c r="BV17" s="1"/>
       <c r="BW17" s="1"/>
       <c r="BX17" s="1"/>
-      <c r="BY17" s="1"/>
+      <c r="BY17" s="6"/>
       <c r="BZ17" s="1"/>
       <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
+      <c r="CB17" s="6"/>
       <c r="CC17" s="1"/>
       <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
+      <c r="CE17" s="5"/>
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
+      <c r="CH17" s="6"/>
       <c r="CI17" s="1"/>
       <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
+      <c r="CK17" s="2"/>
       <c r="CL17" s="1"/>
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
